--- a/Reflection-Automation/DataFiles/MethodNames.xlsx
+++ b/Reflection-Automation/DataFiles/MethodNames.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="3720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="3720" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J10"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
   <si>
     <t>methodname</t>
   </si>
@@ -63,6 +68,153 @@
   </si>
   <si>
     <t>com.sgtesting.actitime.CreateUserScenarioDemo</t>
+  </si>
+  <si>
+    <t>com.sgtesting.actitime.CreateProject</t>
+  </si>
+  <si>
+    <t>modifyCustomer</t>
+  </si>
+  <si>
+    <t>com.sgtesting.actitime.CustomerModify</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Minimize</t>
+  </si>
+  <si>
+    <t>Createcustomer</t>
+  </si>
+  <si>
+    <t>CreateProject</t>
+  </si>
+  <si>
+    <t>DeleteProject</t>
+  </si>
+  <si>
+    <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>com.sgtesting.actitime.ModifyProject</t>
+  </si>
+  <si>
+    <t>com.sgtesting.actitime.ModifyUserScenario</t>
+  </si>
+  <si>
+    <t>modifyUser</t>
+  </si>
+  <si>
+    <t>com.sgtesting.actitime.CreateMultipleUser</t>
+  </si>
+  <si>
+    <t>ThirdtimeAdminlogout</t>
+  </si>
+  <si>
+    <t>DeleteUesers</t>
+  </si>
+  <si>
+    <t>thirdtimeadminLogin</t>
+  </si>
+  <si>
+    <t>Thirdtimeuser3logout</t>
+  </si>
+  <si>
+    <t>ThirdtimeLoginUser3</t>
+  </si>
+  <si>
+    <t>Thirdtimeuser2logout</t>
+  </si>
+  <si>
+    <t>ThirdtimeLoginUser2</t>
+  </si>
+  <si>
+    <t>Thirdtimeuser1logout</t>
+  </si>
+  <si>
+    <t>ThirdtimeLoginUser1</t>
+  </si>
+  <si>
+    <t>SecondtimeAdminlogout</t>
+  </si>
+  <si>
+    <t>AdminModifyuser1</t>
+  </si>
+  <si>
+    <t>SecondtimeadminLogin</t>
+  </si>
+  <si>
+    <t>SecondtimeLogoutuser3</t>
+  </si>
+  <si>
+    <t>Modifyuser3</t>
+  </si>
+  <si>
+    <t>SecondtimeLoginUser3</t>
+  </si>
+  <si>
+    <t>LaunchBrowser</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>LoginUser1</t>
+  </si>
+  <si>
+    <t>Logoutuser1</t>
+  </si>
+  <si>
+    <t>LoginUser2</t>
+  </si>
+  <si>
+    <t>Logoutuser2</t>
+  </si>
+  <si>
+    <t>LoginUser3</t>
+  </si>
+  <si>
+    <t>Logoutuser3</t>
+  </si>
+  <si>
+    <t>SecontimeLoginUser1</t>
+  </si>
+  <si>
+    <t>Modifyuser1</t>
+  </si>
+  <si>
+    <t>SecondtimeLogoutuser1</t>
+  </si>
+  <si>
+    <t>SecondtimeLoginUser2</t>
+  </si>
+  <si>
+    <t>Modifyuser2</t>
+  </si>
+  <si>
+    <t>SecondtimeLogoutuser2</t>
+  </si>
+  <si>
+    <t>createProject</t>
+  </si>
+  <si>
+    <t>deleteProject</t>
+  </si>
+  <si>
+    <t>ModifyProject1</t>
   </si>
 </sst>
 </file>
@@ -383,7 +535,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,4 +710,733 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>